--- a/config/Hmw_Tables/test.xlsx
+++ b/config/Hmw_Tables/test.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="43">
-  <si>
-    <t>Devoir Test 2</t>
-  </si>
-  <si>
-    <t>Devoir De Test</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+  <si>
+    <t>Devoir De Test 2</t>
   </si>
   <si>
     <t>Élèves</t>
@@ -52,6 +49,9 @@
     <t>Emeline</t>
   </si>
   <si>
+    <t>le 25/05 à 10:26</t>
+  </si>
+  <si>
     <t>Emile</t>
   </si>
   <si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>Theob</t>
-  </si>
-  <si>
-    <t>Reçu</t>
   </si>
   <si>
     <t>Vivien</t>
@@ -199,7 +196,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEBBD86"/>
+        <fgColor rgb="FFFFDFB3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,433 +549,316 @@
     <col min="2" max="702" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="B34" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="3" t="s">
+      <c r="B35" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="3" t="s">
+      <c r="B36" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3" t="s">
+      <c r="B37" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="3" t="s">
+      <c r="B38" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="B39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
